--- a/SistemaCenagas/SistemaCenagas/Plantillas/FormatosEXCEL/Anexo6.xlsx
+++ b/SistemaCenagas/SistemaCenagas/Plantillas/FormatosEXCEL/Anexo6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\armandohdz\CSIPA\CENAGAS\CENAGAS-Herramienta1\SistemaCenagas\SistemaCenagas\Plantillas\FormatosEXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C95F86-6BDC-4797-A0EA-6FFF92109511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9FFBFC-AEAD-431D-80CE-86D33BA75253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACD5C548-D44F-4AF6-9057-FB211EB1FF63}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
   <si>
     <t>UNIDAD DE TRANSPORTE  Y ALMACENAMIENTO
 PROCEDIMIENTO DE ADMINISTRACIÓN DE CAMBIOS TEMPORALES Y DEFINITIVOS
@@ -165,36 +165,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Indicando nombre y firma</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. No. De folio de la administración del cambio: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#C_1_</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. Fecha de recepción: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#C_2_</t>
     </r>
   </si>
   <si>
@@ -333,6 +303,18 @@
   </si>
   <si>
     <t>#C_37</t>
+  </si>
+  <si>
+    <t>1. No. De folio de la administración del cambio:</t>
+  </si>
+  <si>
+    <t>#C_1_</t>
+  </si>
+  <si>
+    <t>2. Fecha de recepción:</t>
+  </si>
+  <si>
+    <t>#C_2_</t>
   </si>
 </sst>
 </file>
@@ -377,7 +359,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -400,64 +382,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFC000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFC000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFC000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFC000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFC000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFC000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFC000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFC000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93FD96E-20F9-4D14-982C-A254523971E6}">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,720 +955,724 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" s="27"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="2" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="14" t="s">
+      <c r="B15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
     </row>
     <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
       <c r="I25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J25" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
     </row>
     <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
       <c r="I26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
     </row>
     <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
       <c r="I27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J27" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
       <c r="I28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
       <c r="I29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
       <c r="I30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
       <c r="I31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J31" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
     </row>
     <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
       <c r="I32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J32" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J32" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
     </row>
     <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
       <c r="I33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
     </row>
     <row r="34" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
       <c r="I34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
     </row>
     <row r="35" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
       <c r="I35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J35" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J35" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
+      <c r="A36" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
     </row>
     <row r="40" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
@@ -1644,209 +1697,209 @@
       <c r="P40" s="5"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="A41" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
+      <c r="J41" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="2" t="s">
+      <c r="J44" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
     </row>
     <row r="45" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="A45" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-    </row>
-    <row r="46" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="J45" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
+      <c r="J46" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+    </row>
+    <row r="49" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-    </row>
-    <row r="50" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="J49" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -1864,98 +1917,101 @@
       <c r="P51" s="5"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
+      <c r="A52" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A1:D6"/>
-    <mergeCell ref="E1:P6"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="A9:E11"/>
-    <mergeCell ref="F9:P11"/>
-    <mergeCell ref="A12:P12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="J49:P49"/>
+    <mergeCell ref="H40:I49"/>
+    <mergeCell ref="A50:P51"/>
+    <mergeCell ref="A52:P54"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A46:G48"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="J41:P43"/>
+    <mergeCell ref="J44:P44"/>
+    <mergeCell ref="J45:P45"/>
+    <mergeCell ref="J46:P48"/>
+    <mergeCell ref="A36:P37"/>
+    <mergeCell ref="A38:P39"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="J40:P40"/>
+    <mergeCell ref="A41:G43"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="J34:P34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="J35:P35"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="J29:P29"/>
     <mergeCell ref="B26:H26"/>
     <mergeCell ref="J26:P26"/>
     <mergeCell ref="A14:P14"/>
@@ -1970,43 +2026,22 @@
     <mergeCell ref="A23:P24"/>
     <mergeCell ref="B25:H25"/>
     <mergeCell ref="J25:P25"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="J34:P34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="J35:P35"/>
-    <mergeCell ref="A36:P37"/>
-    <mergeCell ref="A38:P39"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="J40:P40"/>
-    <mergeCell ref="A41:G43"/>
-    <mergeCell ref="J50:P50"/>
-    <mergeCell ref="H40:I50"/>
-    <mergeCell ref="A51:P52"/>
-    <mergeCell ref="A53:P55"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A47:G49"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="J41:P43"/>
-    <mergeCell ref="J44:P44"/>
-    <mergeCell ref="J45:P45"/>
-    <mergeCell ref="J46:P46"/>
-    <mergeCell ref="J47:P49"/>
+    <mergeCell ref="A9:E11"/>
+    <mergeCell ref="F9:P11"/>
+    <mergeCell ref="A12:P12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="A1:D6"/>
+    <mergeCell ref="E1:P6"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
